--- a/AlleLernwortschatze.xlsx
+++ b/AlleLernwortschatze.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoms\PycharmProjects\vocabularyTester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoms\PycharmProjects\articlesGermanA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415DA620-A599-447A-B63E-D850AFBCB2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DAD126-41F4-4C08-BEE2-D6435AE82732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,9 +958,6 @@
     <t>Joghurts</t>
   </si>
   <si>
-    <t>Joghurt</t>
-  </si>
-  <si>
     <t>pescado</t>
   </si>
   <si>
@@ -1147,9 +1144,6 @@
     <t>Kilogramm</t>
   </si>
   <si>
-    <t>Joghurt.</t>
-  </si>
-  <si>
     <t>gallito</t>
   </si>
   <si>
@@ -2039,6 +2033,12 @@
   </si>
   <si>
     <t>metro</t>
+  </si>
+  <si>
+    <t>Joghurt (Deutschland)</t>
+  </si>
+  <si>
+    <t>Joghurt (Österreich)</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2463,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
@@ -2868,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D965F787-DF9F-4180-AD08-FCE98D2461FA}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2896,16 +2896,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>423</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -2913,16 +2913,16 @@
         <v>82</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2930,16 +2930,16 @@
         <v>82</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -2947,16 +2947,16 @@
         <v>82</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
@@ -2964,16 +2964,16 @@
         <v>82</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2981,16 +2981,16 @@
         <v>82</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,16 +2998,16 @@
         <v>82</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,16 +3015,16 @@
         <v>82</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3032,16 +3032,16 @@
         <v>82</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3049,16 +3049,16 @@
         <v>82</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3066,16 +3066,16 @@
         <v>82</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3083,16 +3083,16 @@
         <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3100,16 +3100,16 @@
         <v>82</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>466</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,16 +3117,16 @@
         <v>82</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>470</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3134,16 +3134,16 @@
         <v>82</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>474</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3168,16 +3168,16 @@
         <v>82</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3185,16 +3185,16 @@
         <v>82</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3202,16 +3202,16 @@
         <v>82</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3219,16 +3219,16 @@
         <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>490</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3236,16 +3236,16 @@
         <v>82</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3253,16 +3253,16 @@
         <v>82</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>84</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>86</v>
@@ -3287,16 +3287,16 @@
         <v>82</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3304,16 +3304,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3321,16 +3321,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3338,16 +3338,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3355,16 +3355,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3372,16 +3372,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3389,16 +3389,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3406,16 +3406,16 @@
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>527</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,16 +3423,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3440,16 +3440,16 @@
         <v>26</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3457,14 +3457,14 @@
         <v>26</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3472,16 +3472,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3489,16 +3489,16 @@
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3506,16 +3506,16 @@
         <v>26</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,7 +3529,7 @@
         <v>32</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>34</v>
@@ -3540,16 +3540,16 @@
         <v>26</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3557,16 +3557,16 @@
         <v>26</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3591,16 +3591,16 @@
         <v>26</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3608,16 +3608,16 @@
         <v>26</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3631,7 +3631,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>46</v>
@@ -3642,16 +3642,16 @@
         <v>26</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3659,16 +3659,16 @@
         <v>26</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3676,16 +3676,16 @@
         <v>26</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3693,16 +3693,16 @@
         <v>26</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3710,16 +3710,16 @@
         <v>26</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3727,16 +3727,16 @@
         <v>26</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3744,16 +3744,16 @@
         <v>26</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3761,16 +3761,16 @@
         <v>5</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3778,16 +3778,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3795,16 +3795,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3812,14 +3812,14 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3827,16 +3827,16 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3844,16 +3844,16 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3861,16 +3861,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,16 +3878,16 @@
         <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3895,16 +3895,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>629</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3912,16 +3912,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3929,33 +3929,33 @@
         <v>5</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>637</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3969,10 +3969,10 @@
         <v>63</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3980,16 +3980,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4014,16 +4014,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -4031,16 +4031,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>653</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4048,16 +4048,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4065,16 +4065,16 @@
         <v>5</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4082,16 +4082,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -4116,8 +4116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17421442-483C-49CB-A6B6-FAF3F6EC89D0}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4144,16 +4144,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4161,16 +4161,16 @@
         <v>82</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4178,16 +4178,16 @@
         <v>82</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4195,16 +4195,16 @@
         <v>82</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4212,16 +4212,16 @@
         <v>82</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -4229,16 +4229,16 @@
         <v>82</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4246,16 +4246,16 @@
         <v>82</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4263,16 +4263,16 @@
         <v>82</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4280,16 +4280,16 @@
         <v>82</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4297,16 +4297,16 @@
         <v>82</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4314,13 +4314,13 @@
         <v>82</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>237</v>
@@ -4331,16 +4331,16 @@
         <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4348,16 +4348,16 @@
         <v>82</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4365,16 +4365,16 @@
         <v>82</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4382,24 +4382,24 @@
         <v>82</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>370</v>
+        <v>667</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>306</v>
@@ -4416,16 +4416,16 @@
         <v>82</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4433,16 +4433,16 @@
         <v>82</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4450,16 +4450,16 @@
         <v>82</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4467,16 +4467,16 @@
         <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4484,16 +4484,16 @@
         <v>82</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4501,16 +4501,16 @@
         <v>82</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4518,16 +4518,16 @@
         <v>82</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4535,16 +4535,16 @@
         <v>82</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4552,16 +4552,16 @@
         <v>82</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4569,16 +4569,16 @@
         <v>82</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -4586,16 +4586,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4603,16 +4603,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4620,13 +4620,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>115</v>
@@ -4637,16 +4637,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -4654,16 +4654,16 @@
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -4671,16 +4671,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4688,16 +4688,16 @@
         <v>26</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4705,24 +4705,24 @@
         <v>26</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>307</v>
+        <v>666</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>306</v>

--- a/AlleLernwortschatze.xlsx
+++ b/AlleLernwortschatze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoms\PycharmProjects\articlesGermanA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DAD126-41F4-4C08-BEE2-D6435AE82732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEAB893-18A2-45F4-933F-1969B971257B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="666">
   <si>
     <t>Artikel</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Koffer</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ˈkɔfɐ</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
   </si>
   <si>
     <t>Schweiz</t>
-  </si>
-  <si>
-    <t>-----</t>
   </si>
   <si>
     <t>ʃvaɪ̯t͡s</t>
@@ -2130,7 +2124,358 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2202,10 +2547,10 @@
   <tableStyles count="2">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0312DCD2-D184-4CB4-8D3F-7C5D74480270}"/>
     <tableStyle name="Nomen-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="45"/>
+      <tableStyleElement type="headerRow" dxfId="44"/>
+      <tableStyleElement type="firstRowStripe" dxfId="43"/>
+      <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2463,7 +2808,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2599,30 +2944,30 @@
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2630,16 +2975,16 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2647,16 +2992,16 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2664,16 +3009,16 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2681,16 +3026,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2698,16 +3043,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2715,16 +3060,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2732,16 +3077,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2749,16 +3094,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2766,16 +3111,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2783,16 +3128,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2800,33 +3145,33 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2834,22 +3179,37 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B22">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>COUNTIF($B:$B, B1) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>COUNTIF($B:$B, C8) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>COUNTIF($B:$B, C12) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>COUNTIF($B:$B, C15) &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2868,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D965F787-DF9F-4180-AD08-FCE98D2461FA}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2893,410 +3253,410 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>441</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>460</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>472</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>476</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>495</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3304,16 +3664,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3321,16 +3681,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3338,16 +3698,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3355,16 +3715,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3372,16 +3732,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3389,16 +3749,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3406,16 +3766,16 @@
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,16 +3783,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3440,16 +3800,16 @@
         <v>26</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3457,14 +3817,14 @@
         <v>26</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3472,16 +3832,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3489,16 +3849,16 @@
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3506,16 +3866,16 @@
         <v>26</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>547</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3526,13 +3886,13 @@
         <v>31</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3540,16 +3900,16 @@
         <v>26</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3557,16 +3917,16 @@
         <v>26</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>556</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3574,16 +3934,16 @@
         <v>26</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3591,16 +3951,16 @@
         <v>26</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3608,16 +3968,16 @@
         <v>26</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3625,16 +3985,16 @@
         <v>26</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3642,16 +4002,16 @@
         <v>26</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3659,16 +4019,16 @@
         <v>26</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>572</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3676,16 +4036,16 @@
         <v>26</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3693,16 +4053,16 @@
         <v>26</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>580</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3710,16 +4070,16 @@
         <v>26</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3727,16 +4087,16 @@
         <v>26</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>588</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3744,16 +4104,16 @@
         <v>26</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>592</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3761,16 +4121,16 @@
         <v>5</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3778,16 +4138,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3795,16 +4155,16 @@
         <v>5</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3812,14 +4172,14 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3827,16 +4187,16 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>611</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3844,16 +4204,16 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3861,16 +4221,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,16 +4238,16 @@
         <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3895,16 +4255,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3912,16 +4272,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3929,16 +4289,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3946,16 +4306,16 @@
         <v>26</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>32</v>
+        <v>636</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -3963,16 +4323,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3980,16 +4340,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3997,16 +4357,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4014,16 +4374,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -4031,16 +4391,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4048,16 +4408,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>655</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4065,16 +4425,16 @@
         <v>5</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4082,22 +4442,67 @@
         <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>665</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B72">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="40" priority="10">
       <formula>COUNTIF($B:$B, B1) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>COUNTIF($B:$B, C10) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>COUNTIF($B:$B, C12) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>COUNTIF($B:$B, C25) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>COUNTIF($B:$B, C28) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>COUNTIF($B:$B, C31) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>COUNTIF($B:$B, C38) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>COUNTIF($B:$B, C39) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>COUNTIF($B:$B, C46) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>COUNTIF($B:$B, C64) &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4116,8 +4521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17421442-483C-49CB-A6B6-FAF3F6EC89D0}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4141,444 +4546,444 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>417</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>32</v>
+        <v>406</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>59</v>
+        <v>399</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>396</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>393</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>59</v>
+        <v>386</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>32</v>
+        <v>372</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>32</v>
+        <v>369</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>32</v>
+        <v>366</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>32</v>
+        <v>359</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>59</v>
+        <v>352</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>32</v>
+        <v>334</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -4586,16 +4991,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4603,16 +5008,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4620,16 +5025,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4637,16 +5042,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -4654,16 +5059,16 @@
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -4671,16 +5076,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>32</v>
+        <v>315</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4688,16 +5093,16 @@
         <v>26</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4705,16 +5110,16 @@
         <v>26</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
@@ -4722,16 +5127,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4739,16 +5144,16 @@
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4756,16 +5161,16 @@
         <v>26</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>59</v>
+        <v>297</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4773,16 +5178,16 @@
         <v>26</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4790,16 +5195,16 @@
         <v>26</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4807,16 +5212,16 @@
         <v>26</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4824,16 +5229,16 @@
         <v>26</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4841,16 +5246,16 @@
         <v>26</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4858,16 +5263,16 @@
         <v>26</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4875,16 +5280,16 @@
         <v>26</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>32</v>
+        <v>273</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
@@ -4892,16 +5297,16 @@
         <v>26</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4909,16 +5314,16 @@
         <v>26</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4926,16 +5331,16 @@
         <v>26</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4943,16 +5348,16 @@
         <v>26</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4960,16 +5365,16 @@
         <v>26</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4977,16 +5382,16 @@
         <v>26</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4994,16 +5399,16 @@
         <v>26</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -5011,16 +5416,16 @@
         <v>26</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5028,16 +5433,16 @@
         <v>26</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5045,16 +5450,16 @@
         <v>26</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5062,16 +5467,16 @@
         <v>26</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5079,16 +5484,16 @@
         <v>26</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5096,16 +5501,16 @@
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -5113,16 +5518,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -5130,16 +5535,16 @@
         <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -5147,16 +5552,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -5164,16 +5569,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5181,16 +5586,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -5198,16 +5603,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5215,16 +5620,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -5232,16 +5637,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5249,16 +5654,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
@@ -5266,16 +5671,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -5283,16 +5688,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -5300,16 +5705,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -5317,16 +5722,16 @@
         <v>5</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -5334,16 +5739,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -5351,16 +5756,16 @@
         <v>5</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -5368,16 +5773,16 @@
         <v>5</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -5385,16 +5790,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -5402,16 +5807,16 @@
         <v>5</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -5419,16 +5824,16 @@
         <v>5</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -5436,16 +5841,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -5453,16 +5858,16 @@
         <v>5</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5470,16 +5875,16 @@
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
@@ -5487,16 +5892,16 @@
         <v>5</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5504,16 +5909,16 @@
         <v>5</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5521,16 +5926,16 @@
         <v>5</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5538,16 +5943,16 @@
         <v>5</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5555,16 +5960,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5572,16 +5977,16 @@
         <v>5</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5589,16 +5994,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -5606,16 +6011,16 @@
         <v>5</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5623,16 +6028,16 @@
         <v>5</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -5640,16 +6045,16 @@
         <v>5</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5657,16 +6062,16 @@
         <v>5</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5674,16 +6079,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5691,22 +6096,157 @@
         <v>5</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B93 C37 C51 C63 C66 C75">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="B1:B93 C66 C37:C39 C51:C52 C63 C74:C75">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>COUNTIF($B:$B, B1) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="39" priority="27">
+      <formula>COUNTIF($B:$B, C2) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="37" priority="26">
+      <formula>COUNTIF($B:$B, C5) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="36" priority="25">
+      <formula>COUNTIF($B:$B, C7) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="35" priority="24">
+      <formula>COUNTIF($B:$B, C8) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="34" priority="23">
+      <formula>COUNTIF($B:$B, C9) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="33" priority="22">
+      <formula>COUNTIF($B:$B, C11) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="32" priority="21">
+      <formula>COUNTIF($B:$B, C15) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="31" priority="20">
+      <formula>COUNTIF($B:$B, C16) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="30" priority="19">
+      <formula>COUNTIF($B:$B, C18) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="29" priority="18">
+      <formula>COUNTIF($B:$B, C20) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="28" priority="17">
+      <formula>COUNTIF($B:$B, C22) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="27" priority="16">
+      <formula>COUNTIF($B:$B, C26) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="26" priority="15">
+      <formula>COUNTIF($B:$B, C27) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="25" priority="14">
+      <formula>COUNTIF($B:$B, C30) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="24" priority="13">
+      <formula>COUNTIF($B:$B, C31) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="23" priority="12">
+      <formula>COUNTIF($B:$B, C32) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="22" priority="11">
+      <formula>COUNTIF($B:$B, C33) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="expression" dxfId="21" priority="10">
+      <formula>COUNTIF($B:$B, C41) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="20" priority="9">
+      <formula>COUNTIF($B:$B, C42) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="19" priority="8">
+      <formula>COUNTIF($B:$B, C45) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="18" priority="7">
+      <formula>COUNTIF($B:$B, C47) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="17" priority="6">
+      <formula>COUNTIF($B:$B, C49) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="16" priority="5">
+      <formula>COUNTIF($B:$B, C55) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="15" priority="4">
+      <formula>COUNTIF($B:$B, C57) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="expression" dxfId="14" priority="3">
+      <formula>COUNTIF($B:$B, C81) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>COUNTIF($B:$B, C82) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>COUNTIF($B:$B, C85) &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
